--- a/data/test_inputs/weights/weights_2_mech_0.xlsx
+++ b/data/test_inputs/weights/weights_2_mech_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/complete_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C689723-4ED4-134F-8FCD-69EE9E81B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED514057-07E7-CC4C-AD85-A7DCFA49447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="2560" windowWidth="19360" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16860" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t>B</t>
+    <t>Youngs_modulus</t>
   </si>
   <si>
-    <t>C</t>
+    <t>tensile_strain_at_break</t>
   </si>
   <si>
-    <t>D</t>
+    <t>yield_strenght</t>
   </si>
 </sst>
 </file>
@@ -388,20 +388,26 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -420,7 +426,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -434,7 +440,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>9</v>
